--- a/medicine/Enfance/Le_Démon_qui_dansait_la_gigue/Le_Démon_qui_dansait_la_gigue.xlsx
+++ b/medicine/Enfance/Le_Démon_qui_dansait_la_gigue/Le_Démon_qui_dansait_la_gigue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_D%C3%A9mon_qui_dansait_la_gigue</t>
+          <t>Le_Démon_qui_dansait_la_gigue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Démon qui dansait la gigue (titre original : The Mystery of the Dancing Devil) est un roman de Robert Arthur et de William Arden, paru en 1976 chez Random House aux États-Unis, faisant partie de la série policière pour adolescents Les Trois Jeunes Détectives.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_D%C3%A9mon_qui_dansait_la_gigue</t>
+          <t>Le_Démon_qui_dansait_la_gigue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">« Les trois jeunes détectives » (Hannibal, Peter et Bob) sont amenés à enquêter de la manière la plus inattendue qui soit : la jeune Winnie, six ans, s'est fait voler sa poupée Anastasie par un homme avec une cape noire. Ce qui se présente sous un angle peu important devient plus sérieux quand les trois jeunes gens découvrent que le père de Peter Crentch vient de se faire dérober un appareil de projection par un homme avec une cape noire. Or la poupée comme l'appareil de projection étaient transportés dans des attachés-case noirs. Serait-on face à un voleur obsédé par le vol de valises ?
 Les Trois Détectives font savoir au voisinage qu'ils ont trouvé une telle valise et se mettent à surveiller, la nuit suivante, le local d'entrepôt de l'oncle Titus. Le voleur fait son apparition et s'empare de la valise. Celle-ci est un « appât » contenant un puce émettrice qui permet de la suivre à distance. Alors qu'ils arrivent près de la plage, un immense démon hirsute et effrayant, avec des cornes, des yeux rouges, des colliers magiques, poussant des cris démoniaques, les effraie. Le Démon pousse ses cris effrayants tout en dansant de manière désordonnée. Les adolescents prennent peur et le voleur s'enfuit.
